--- a/Excels/Dialogue_对话表.xlsx
+++ b/Excels/Dialogue_对话表.xlsx
@@ -27,9 +27,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>subIds</t>
   </si>
   <si>
@@ -42,13 +39,16 @@
     <t>Icon</t>
   </si>
   <si>
-    <t xml:space="preserve">子节点 Id</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子节点 ID</t>
   </si>
   <si>
     <t>内容</t>
   </si>
   <si>
-    <t xml:space="preserve">对话节点功能 Id</t>
+    <t xml:space="preserve">对话节点功能 ID</t>
   </si>
   <si>
     <t>图标</t>
@@ -650,16 +650,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1463,7 +1460,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
       <selection activeCell="B548" activeCellId="0" sqref="B548"/>
     </sheetView>
   </sheetViews>
@@ -1480,14 +1477,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1495,44 +1492,44 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" s="1" customFormat="1">
+      <c r="A3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" s="3" customFormat="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1542,10 +1539,10 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="3"/>
@@ -1555,7 +1552,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="3"/>
@@ -1565,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3"/>
